--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>952090.7118364251</v>
+        <v>950203.1303200232</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>594819.9788486529</v>
+        <v>245951.3024168675</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>202.400346577246</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7.014640883665538</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>74.53436060286496</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>259.1356101965859</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.18624263408637</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>3.31166382140158</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>46.60564476255283</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>117.5242961642341</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>357.8196073315861</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>61.66261451841185</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T10" t="n">
-        <v>97.43077510209437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710061</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.1537278750032</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>176.8688121773844</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>92.53945079308437</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>73.21532344290732</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>148.465552709174</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065126</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>24.32276211751099</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>234.1231749377855</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.2425576766692</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.459896748109614</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404422</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>42.2056982312523</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571482</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>8.269234981095806</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463068</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463138</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4147,7 +4147,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1034.617283051399</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C2" t="n">
-        <v>1034.617283051399</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>676.3515844446483</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>676.3515844446483</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.063595176136</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2513.886107490306</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2295.251440462369</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2295.251440462369</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1964.188553118798</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1611.419897848684</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1237.954139587604</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.217123115521</v>
+        <v>847.8148076117928</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="U4" t="n">
-        <v>466.3758425937212</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6913543878343</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6913543878343</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2694.940765125206</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2694.940765125206</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2694.940765125206</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2694.940765125206</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2363.877877781635</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2011.109222511521</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="X5" t="n">
-        <v>1637.643464250441</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1637.643464250441</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.9194859165262</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C7" t="n">
-        <v>308.9833029886194</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="D7" t="n">
-        <v>308.9833029886194</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="E7" t="n">
-        <v>308.9833029886194</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="F7" t="n">
-        <v>308.9833029886194</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>308.9833029886194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.9194859165262</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1525.746656041711</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017522</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.746656041711</v>
+        <v>1358.931653905004</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.4256366790474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245973</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>415.4256366790474</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>415.4256366790474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>415.4256366790474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>415.4256366790474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>415.4256366790474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.4256366790474</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,67 +5024,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L12" t="n">
-        <v>222.5746515181232</v>
+        <v>738.0704661731476</v>
       </c>
       <c r="M12" t="n">
-        <v>897.6601296826479</v>
+        <v>738.0704661731476</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687012</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811255</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441649</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>237.7764125461476</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>237.7764125461476</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5267,16 +5267,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5288,19 +5288,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1990.324165399616</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.8027887886594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8666058607525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>358.8666058607525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241961</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188992</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>709.4512536188992</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>709.4512536188992</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.4512536188992</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>425.5808094380895</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1039.477879194978</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527474</v>
+        <v>1039.477879194978</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419557</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5671,13 +5671,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.1184791449342</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5735,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028583</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.6754855415406</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C22" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>121.7855380436303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>121.7855380436303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>121.7855380436303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>755.1831334811261</v>
       </c>
       <c r="W22" t="n">
-        <v>496.665036439558</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>268.6754855415406</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y22" t="n">
-        <v>268.6754855415406</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
         <v>904.3190116155888</v>
@@ -5984,7 +5984,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028583</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,25 +6169,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655736</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286131</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305954</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
         <v>278.8655562905255</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1493.40122333759</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1293.481213253142</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1293.481213253142</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>714.9354044297401</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317227</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,25 +6543,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>233.2506118890489</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>463.2137177573981</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.7225911205023</v>
+        <v>439.5324299542159</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739662</v>
+        <v>326.3571123076797</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430014</v>
+        <v>232.0013381767147</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430014</v>
+        <v>139.8491098756922</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>957.994667138698</v>
+        <v>902.6804289818915</v>
       </c>
       <c r="X31" t="n">
-        <v>949.6419045315304</v>
+        <v>730.4517433652449</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6101906693711</v>
+        <v>565.4200295030849</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,40 +6683,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823776</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6740,10 +6740,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,55 +6835,55 @@
         <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,13 +6892,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010313</v>
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.325632214049</v>
+        <v>1022.301796319694</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1790.669942712155</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,13 +7114,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>340.9799392532614</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>661.3152587829632</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>956.4246760986771</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>175.8529592223693</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9483,16 +9483,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>343.8541735176848</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>210.6343697760784</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>217.2303754794651</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10680,10 +10680,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>258.1556805224379</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>263.2986347540033</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.67825230693413</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.26883114644363</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>53.8945118534848</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>124.7054865406959</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>31.36642747276326</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518767</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.09309322362429</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>86.09648334676103</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>52.39982339880549</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>61.34209567542564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182123</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>104.5044556556831</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338577</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316312197</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571501</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523563</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>162.2371637793842</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997124.1023311579</v>
+        <v>997124.102331158</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311581</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997124.1023311581</v>
+        <v>997124.102331158</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311579</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311581</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26320,7 +26320,7 @@
         <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>371477.6067508237</v>
+        <v>371477.6067508236</v>
       </c>
       <c r="F2" t="n">
         <v>371477.6067508236</v>
@@ -26329,31 +26329,31 @@
         <v>371477.6067508236</v>
       </c>
       <c r="H2" t="n">
-        <v>371477.6067508234</v>
+        <v>371477.6067508236</v>
       </c>
       <c r="I2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="J2" t="n">
         <v>371477.6067508236</v>
       </c>
       <c r="K2" t="n">
-        <v>386481.0304780067</v>
+        <v>386481.0304780066</v>
       </c>
       <c r="L2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="M2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="N2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="O2" t="n">
         <v>389994.8406855348</v>
       </c>
-      <c r="M2" t="n">
-        <v>389994.8406855348</v>
-      </c>
-      <c r="N2" t="n">
-        <v>389994.8406855348</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>389994.8406855346</v>
-      </c>
-      <c r="P2" t="n">
-        <v>389994.8406855348</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086682</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,37 +26424,37 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759332</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758772</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758811</v>
+        <v>787.7936905758772</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759237</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.7936905759211</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758025</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477244</v>
+        <v>18952.41620477238</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189642</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189632</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-421891.2557730385</v>
+        <v>-421891.2557730386</v>
       </c>
       <c r="C6" t="n">
-        <v>168076.6234415059</v>
+        <v>168076.623441506</v>
       </c>
       <c r="D6" t="n">
         <v>168076.6234415059</v>
       </c>
       <c r="E6" t="n">
-        <v>-246457.5493653647</v>
+        <v>-246555.008491337</v>
       </c>
       <c r="F6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855589</v>
       </c>
       <c r="G6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855589</v>
       </c>
       <c r="H6" t="n">
-        <v>278702.4871115309</v>
+        <v>278605.0279855589</v>
       </c>
       <c r="I6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="J6" t="n">
-        <v>102279.2679189381</v>
+        <v>102181.8087929659</v>
       </c>
       <c r="K6" t="n">
-        <v>226737.8004401657</v>
+        <v>226719.3067022316</v>
       </c>
       <c r="L6" t="n">
-        <v>258730.2471327462</v>
+        <v>258730.247132746</v>
       </c>
       <c r="M6" t="n">
         <v>134272.1386997759</v>
       </c>
       <c r="N6" t="n">
-        <v>269073.153933613</v>
+        <v>269073.1539336129</v>
       </c>
       <c r="O6" t="n">
         <v>269073.153933613</v>
       </c>
       <c r="P6" t="n">
-        <v>224910.5486307673</v>
+        <v>224910.5486307674</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26765,7 +26765,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855693</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4756991644655</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>47.46376169114616</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>72.13083137729286</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>27.14626404539183</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.29215994072533</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>345.9293048960114</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>98.81540326037842</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38.64659267756103</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.453284439421452</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>324.5753241376418</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T10" t="n">
-        <v>127.6043303559899</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.406874616804998e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31543,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653276</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31713,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>358.3334935705282</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>273.9327574912495</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32078,7 +32078,7 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
@@ -32087,19 +32087,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.05551087636761</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,25 +32555,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32795,22 +32795,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32947,7 +32947,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041508</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
@@ -33029,25 +33029,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33199,13 +33199,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33263,7 +33263,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>10.78379835447035</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -33272,7 +33272,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33284,7 +33284,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>144.2740676092158</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,13 +33740,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>119.1011393880645</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33755,10 +33755,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33907,7 +33907,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946992</v>
@@ -33989,13 +33989,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34135,7 +34135,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
@@ -34211,16 +34211,16 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>220.9982683546634</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,10 +34229,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34369,7 +34369,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
@@ -34451,7 +34451,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -34463,10 +34463,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770693</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>681.9045233985098</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>621.9334197514697</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35726,7 +35726,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35735,19 +35735,19 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>33.25671477792488</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>163.6793089145872</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197793</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>201.2579290732403</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197793</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>79.29265769274512</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.689756130335</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>74.63413103502069</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.40759639269</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178376</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>395.5401424415009</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>351.3871049116495</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37555,7 +37555,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>119.6013007425637</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
@@ -37637,13 +37637,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>544.569298182645</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>121.1646008319849</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
@@ -38111,10 +38111,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
